--- a/templates/success.xlsx
+++ b/templates/success.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>测试模板</t>
   </si>
@@ -32,64 +32,61 @@
     <t>爱好</t>
   </si>
   <si>
-    <t>生成姓名44</t>
+    <t>生成姓名33</t>
   </si>
   <si>
     <t>篮球</t>
   </si>
   <si>
+    <t>生成姓名21</t>
+  </si>
+  <si>
+    <t>生成姓名76</t>
+  </si>
+  <si>
+    <t>生成姓名40</t>
+  </si>
+  <si>
+    <t>生成姓名51</t>
+  </si>
+  <si>
+    <t>生成姓名19</t>
+  </si>
+  <si>
+    <t>生成姓名6</t>
+  </si>
+  <si>
+    <t>生成姓名15</t>
+  </si>
+  <si>
+    <t>生成姓名54</t>
+  </si>
+  <si>
+    <t>生成姓名93</t>
+  </si>
+  <si>
+    <t>生成姓名32</t>
+  </si>
+  <si>
+    <t>生成姓名39</t>
+  </si>
+  <si>
+    <t>生成姓名86</t>
+  </si>
+  <si>
+    <t>生成姓名12</t>
+  </si>
+  <si>
+    <t>生成姓名98</t>
+  </si>
+  <si>
     <t>生成姓名2</t>
   </si>
   <si>
-    <t>生成姓名30</t>
-  </si>
-  <si>
-    <t>生成姓名60</t>
-  </si>
-  <si>
-    <t>生成姓名86</t>
-  </si>
-  <si>
-    <t>生成姓名9</t>
-  </si>
-  <si>
-    <t>生成姓名33</t>
-  </si>
-  <si>
-    <t>生成姓名49</t>
-  </si>
-  <si>
     <t>生成姓名43</t>
   </si>
   <si>
-    <t>生成姓名97</t>
-  </si>
-  <si>
-    <t>生成姓名32</t>
-  </si>
-  <si>
-    <t>生成姓名91</t>
-  </si>
-  <si>
-    <t>生成姓名25</t>
-  </si>
-  <si>
-    <t>生成姓名22</t>
-  </si>
-  <si>
-    <t>生成姓名69</t>
-  </si>
-  <si>
-    <t>生成姓名24</t>
-  </si>
-  <si>
-    <t>生成姓名87</t>
-  </si>
-  <si>
-    <t>生成姓名23</t>
-  </si>
-  <si>
-    <t>生成姓名78</t>
+    <t>生成姓名84</t>
   </si>
 </sst>
 </file>
@@ -113,527 +110,527 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <sz val="11.0"/>
       <color indexed="9"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
       <name val="等线"/>
       <sz val="11.0"/>
       <color indexed="8"/>
     </font>
     <font>
-      <name val="等线"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
   </fonts>
   <fills count="22">
@@ -1136,13 +1133,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="n" s="10">
-        <v>52.0</v>
+        <v>26.0</v>
       </c>
       <c r="C3" t="n" s="11">
-        <v>44.0</v>
+        <v>18.0</v>
       </c>
       <c r="D3" t="n" s="12">
-        <v>122.0</v>
+        <v>94.0</v>
       </c>
       <c r="E3" t="s" s="13">
         <v>7</v>
@@ -1153,13 +1150,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n" s="15">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" t="n" s="16">
-        <v>115.0</v>
+        <v>20.0</v>
       </c>
       <c r="D4" t="n" s="17">
-        <v>141.0</v>
+        <v>185.0</v>
       </c>
       <c r="E4" t="s" s="18">
         <v>7</v>
@@ -1170,13 +1167,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n" s="20">
-        <v>63.0</v>
+        <v>93.0</v>
       </c>
       <c r="C5" t="n" s="21">
-        <v>191.0</v>
+        <v>196.0</v>
       </c>
       <c r="D5" t="n" s="22">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" t="s" s="23">
         <v>7</v>
@@ -1187,13 +1184,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n" s="25">
-        <v>97.0</v>
+        <v>71.0</v>
       </c>
       <c r="C6" t="n" s="26">
-        <v>137.0</v>
+        <v>155.0</v>
       </c>
       <c r="D6" t="n" s="27">
-        <v>150.0</v>
+        <v>53.0</v>
       </c>
       <c r="E6" t="s" s="28">
         <v>7</v>
@@ -1204,13 +1201,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n" s="30">
-        <v>12.0</v>
+        <v>84.0</v>
       </c>
       <c r="C7" t="n" s="31">
-        <v>195.0</v>
+        <v>145.0</v>
       </c>
       <c r="D7" t="n" s="32">
-        <v>163.0</v>
+        <v>24.0</v>
       </c>
       <c r="E7" t="s" s="33">
         <v>7</v>
@@ -1221,13 +1218,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n" s="35">
-        <v>10.0</v>
+        <v>81.0</v>
       </c>
       <c r="C8" t="n" s="36">
-        <v>192.0</v>
+        <v>37.0</v>
       </c>
       <c r="D8" t="n" s="37">
-        <v>175.0</v>
+        <v>102.0</v>
       </c>
       <c r="E8" t="s" s="38">
         <v>7</v>
@@ -1238,13 +1235,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n" s="40">
-        <v>43.0</v>
+        <v>23.0</v>
       </c>
       <c r="C9" t="n" s="41">
-        <v>187.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9" t="n" s="42">
-        <v>36.0</v>
+        <v>108.0</v>
       </c>
       <c r="E9" t="s" s="43">
         <v>7</v>
@@ -1255,13 +1252,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n" s="45">
-        <v>37.0</v>
+        <v>97.0</v>
       </c>
       <c r="C10" t="n" s="46">
-        <v>166.0</v>
+        <v>154.0</v>
       </c>
       <c r="D10" t="n" s="47">
-        <v>130.0</v>
+        <v>152.0</v>
       </c>
       <c r="E10" t="s" s="48">
         <v>7</v>
@@ -1272,13 +1269,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n" s="50">
-        <v>27.0</v>
+        <v>89.0</v>
       </c>
       <c r="C11" t="n" s="51">
-        <v>17.0</v>
+        <v>86.0</v>
       </c>
       <c r="D11" t="n" s="52">
-        <v>159.0</v>
+        <v>39.0</v>
       </c>
       <c r="E11" t="s" s="53">
         <v>7</v>
@@ -1289,13 +1286,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n" s="55">
-        <v>69.0</v>
+        <v>63.0</v>
       </c>
       <c r="C12" t="n" s="56">
-        <v>32.0</v>
+        <v>82.0</v>
       </c>
       <c r="D12" t="n" s="57">
-        <v>162.0</v>
+        <v>63.0</v>
       </c>
       <c r="E12" t="s" s="58">
         <v>7</v>
@@ -1303,16 +1300,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n" s="60">
-        <v>83.0</v>
+        <v>66.0</v>
       </c>
       <c r="C13" t="n" s="61">
-        <v>62.0</v>
+        <v>144.0</v>
       </c>
       <c r="D13" t="n" s="62">
-        <v>59.0</v>
+        <v>150.0</v>
       </c>
       <c r="E13" t="s" s="63">
         <v>7</v>
@@ -1320,16 +1317,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n" s="65">
-        <v>58.0</v>
+        <v>19.0</v>
       </c>
       <c r="C14" t="n" s="66">
-        <v>145.0</v>
+        <v>150.0</v>
       </c>
       <c r="D14" t="n" s="67">
-        <v>7.0</v>
+        <v>164.0</v>
       </c>
       <c r="E14" t="s" s="68">
         <v>7</v>
@@ -1337,16 +1334,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="69">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n" s="70">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="C15" t="n" s="71">
-        <v>1.0</v>
+        <v>87.0</v>
       </c>
       <c r="D15" t="n" s="72">
-        <v>156.0</v>
+        <v>195.0</v>
       </c>
       <c r="E15" t="s" s="73">
         <v>7</v>
@@ -1354,16 +1351,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="74">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="n" s="75">
-        <v>84.0</v>
+        <v>21.0</v>
       </c>
       <c r="C16" t="n" s="76">
-        <v>85.0</v>
+        <v>133.0</v>
       </c>
       <c r="D16" t="n" s="77">
-        <v>185.0</v>
+        <v>88.0</v>
       </c>
       <c r="E16" t="s" s="78">
         <v>7</v>
@@ -1371,16 +1368,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="79">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B17" t="n" s="80">
-        <v>67.0</v>
+        <v>31.0</v>
       </c>
       <c r="C17" t="n" s="81">
-        <v>133.0</v>
+        <v>55.0</v>
       </c>
       <c r="D17" t="n" s="82">
-        <v>73.0</v>
+        <v>97.0</v>
       </c>
       <c r="E17" t="s" s="83">
         <v>7</v>
@@ -1388,16 +1385,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="84">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B18" t="n" s="85">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="C18" t="n" s="86">
-        <v>11.0</v>
+        <v>95.0</v>
       </c>
       <c r="D18" t="n" s="87">
-        <v>180.0</v>
+        <v>165.0</v>
       </c>
       <c r="E18" t="s" s="88">
         <v>7</v>
@@ -1405,16 +1402,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="89">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="90">
-        <v>88.0</v>
+        <v>83.0</v>
       </c>
       <c r="C19" t="n" s="91">
-        <v>191.0</v>
+        <v>54.0</v>
       </c>
       <c r="D19" t="n" s="92">
-        <v>105.0</v>
+        <v>124.0</v>
       </c>
       <c r="E19" t="s" s="93">
         <v>7</v>
@@ -1422,16 +1419,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="94">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="95">
-        <v>23.0</v>
+        <v>83.0</v>
       </c>
       <c r="C20" t="n" s="96">
-        <v>2.0</v>
+        <v>113.0</v>
       </c>
       <c r="D20" t="n" s="97">
-        <v>38.0</v>
+        <v>105.0</v>
       </c>
       <c r="E20" t="s" s="98">
         <v>7</v>
@@ -1439,16 +1436,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="99">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n" s="100">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="C21" t="n" s="101">
-        <v>185.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21" t="n" s="102">
-        <v>111.0</v>
+        <v>98.0</v>
       </c>
       <c r="E21" t="s" s="103">
         <v>7</v>
@@ -1456,16 +1453,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="104">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="n" s="105">
-        <v>41.0</v>
+        <v>81.0</v>
       </c>
       <c r="C22" t="n" s="106">
-        <v>131.0</v>
+        <v>162.0</v>
       </c>
       <c r="D22" t="n" s="107">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E22" t="s" s="108">
         <v>7</v>
